--- a/medicine/Enfance/Catharina_Valckx/Catharina_Valckx.xlsx
+++ b/medicine/Enfance/Catharina_Valckx/Catharina_Valckx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catharina Valckx est une auteure de littérature jeunesse et illustratrice née en 1957 à De Bilt aux Pays-Bas de parents néerlandais.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a vécu en France, à Bièvres dans la grande banlieue parisienne, avec ses parents et ses quatre sœurs, puis est retournée en Hollande pour faire ses études à l'académie d'art de Groningen. Elle vit aujourd'hui à Amsterdam.
-Elle réalise d'abord des textes, des peintures, des expositions et participe aux Ateliers '63. Ce n'est qu'après la naissance de son fils, en 1993, qu'elle découvre la littérature jeunesse et publie ses premiers livres d'images, qu'elle écrit en français et en néerlandais[1].
-Elle a été sélectionnée quatre fois, en 2011, 2013, 2014 et 2015 pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren[2].
-Sa série Lisette, avec comme héroïne le « merveilleux personnage de Lisette, gallinacé ne fréquentant pas de majesté mais de bons copains en bordure de terrain vague, où elle vit avec sa mère[3] » selon Télérama, débute en 2002 avec l'album La Chaussette verte de Lisette. Le deuxième tome Dans la poussette de Lisette est publié en 2007. Le troisième opus Lisette et le gros mensonge est publié en 2020, ouvrage dont l'avis critique de Télérama  mentionne : « Simple, impertinent, l’album creuse le thème du mensonge avec une fraîche vivacité, propre à ouvrir dans l’esprit des enfants un débat interne foisonnant[3] ».
-En 2024 est publié son album jeunesse Édith, la petite fille qui avait cent ans, l'histoire d'une petite fille de 7 ans qui a arrêté de grandir. Pour Télérama  : « Cet album captive par sa profondeur philosophique, et pose des questions existentielles majeures, sans jamais se déparer de sa sensibilité primesautière. Il suffit de croiser le regard d’Édith, pétillant, abyssal, pour trouver toutes les réponses nécessaires à l’élan de vie, et à l’acceptation de notre condition humaine[4] ».
+Elle réalise d'abord des textes, des peintures, des expositions et participe aux Ateliers '63. Ce n'est qu'après la naissance de son fils, en 1993, qu'elle découvre la littérature jeunesse et publie ses premiers livres d'images, qu'elle écrit en français et en néerlandais.
+Elle a été sélectionnée quatre fois, en 2011, 2013, 2014 et 2015 pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren.
+Sa série Lisette, avec comme héroïne le « merveilleux personnage de Lisette, gallinacé ne fréquentant pas de majesté mais de bons copains en bordure de terrain vague, où elle vit avec sa mère » selon Télérama, débute en 2002 avec l'album La Chaussette verte de Lisette. Le deuxième tome Dans la poussette de Lisette est publié en 2007. Le troisième opus Lisette et le gros mensonge est publié en 2020, ouvrage dont l'avis critique de Télérama  mentionne : « Simple, impertinent, l’album creuse le thème du mensonge avec une fraîche vivacité, propre à ouvrir dans l’esprit des enfants un débat interne foisonnant ».
+En 2024 est publié son album jeunesse Édith, la petite fille qui avait cent ans, l'histoire d'une petite fille de 7 ans qui a arrêté de grandir. Pour Télérama  : « Cet album captive par sa profondeur philosophique, et pose des questions existentielles majeures, sans jamais se déparer de sa sensibilité primesautière. Il suffit de croiser le regard d’Édith, pétillant, abyssal, pour trouver toutes les réponses nécessaires à l’élan de vie, et à l’acceptation de notre condition humaine ».
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-série Le Roi et la poule 
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>série Le Roi et la poule 
 Le Roi et la poule, l'École des Loisirs, 1997.
 Les Rêves du Roi, l'École des Loisirs, 2000
 Le Roi, la poule et le voleur, l'École des Loisirs, 2001
@@ -563,7 +582,7 @@
 série Lisette , L'Ecole des loisirs
 La Chaussette verte de Lisette, 2002
 Dans la poussette de Lisette, 2007
- Lisette et le gros mensonge[3], 2020
+ Lisette et le gros mensonge, 2020
 L'Incroyable Zanzibar, l'École des Loisirs, 2003
 Momo Vanpeper et les géants, éd. Page à page, 2003
 Coco Panache, l'École des Loisirs, 2004,
@@ -600,9 +619,43 @@
  Manu et Nono chez Ursule, 2021
  Manu et Nono : Où Manu fait la planche, 2021
  Manu et Nono cherchent les mots, 2022
-Édith, la petite fille qui avait cent ans[4], L'École des loisirs, 2024
-Illustratrice
-Un Trésor bien caché, texte de Brigitte Smadja, l'École des Loisirs, 1999
+Édith, la petite fille qui avait cent ans, L'École des loisirs, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un Trésor bien caché, texte de Brigitte Smadja, l'École des Loisirs, 1999
 Le Coup du kiwi, texte de Marie Desplechin, l'École des Loisirs, 2000
 Ma collection d'amours, texte de Marie Desplechin, l'École des Loisirs, 2002
 Au pied de l'arc-en-ciel, texte de Moka, l'École des Loisirs, 2001
@@ -610,48 +663,7 @@
 Les Grosses lettres, texte de Kéthévane Davrichewy, l'École des Loisirs, 2003
 A deux, c'est mieux, texte de Agnès Desarthe, l'École des Loisirs, 2004
 Kakine Pouloute, texte de Nathalie Brissac, l'École des Loisirs, 2005
-Le Merveilleux petit champignon atomique, texte de Sabrina Mullor, l'École des Loisirs, 2010
-Auteure du texte
- Série Bruno , illustrations de Nicolas Hubesch, l'École des Loisirs
-Bruno. Quelques jours de ma vie très intéressante, 2015
- Bruno. Le jour où j'ai offert une plante à un inconnu, 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catharina_Valckx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catharina_Valckx</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix de la Semaine Paul Hurtmans du livre de jeunesse (Belgique) 2002[5] pour Mémet le timide
-La Chaussette verte de Lisette : Booklist Editor's Choice, USA, (2005), Child Magazine Best Book of the year (2005), Outstanding International Book, USA (2005), School Librairy journal Best Book of the year, USA (2005), CCBC Choice (2006), Bank Street Best Book of the year (2006) [6].
-Coco Panache : prix Bernard Versele[7], Belgique (2007), Premio Special au salon du livre de Turin (2008), Livre Pilier de la semaine du livre jeunesse des Pays-Bas (2011).
-Ma collection : 3e prix de l'illustration (sélection internationale) (Pays-Bas), 2009
-Haut les pattes !: prix des librairies jeunesse (Pays-Bas), 2011
-Prix Bernard Versele (Belgique) 2018[8] pour Bruno. Quelques jours de ma vie très intéressante, texte de Catharina Valckx, illustrations de Nicolas Hubesch
-Prix Livrentête (France) 2019[9] pour  Bruno. Le jour où j'ai offert une plante à un inconnu, iillustrations de Nicolas Hubesch
-Sélections pour le prix international, le Prix commémoratif Astrid-Lindgren (Suède), en 2011, 2013, 2014 et 2015[2]</t>
+Le Merveilleux petit champignon atomique, texte de Sabrina Mullor, l'École des Loisirs, 2010</t>
         </is>
       </c>
     </row>
@@ -676,10 +688,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteure du texte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Série Bruno , illustrations de Nicolas Hubesch, l'École des Loisirs
+Bruno. Quelques jours de ma vie très intéressante, 2015
+ Bruno. Le jour où j'ai offert une plante à un inconnu, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix de la Semaine Paul Hurtmans du livre de jeunesse (Belgique) 2002 pour Mémet le timide
+La Chaussette verte de Lisette : Booklist Editor's Choice, USA, (2005), Child Magazine Best Book of the year (2005), Outstanding International Book, USA (2005), School Librairy journal Best Book of the year, USA (2005), CCBC Choice (2006), Bank Street Best Book of the year (2006) .
+Coco Panache : prix Bernard Versele, Belgique (2007), Premio Special au salon du livre de Turin (2008), Livre Pilier de la semaine du livre jeunesse des Pays-Bas (2011).
+Ma collection : 3e prix de l'illustration (sélection internationale) (Pays-Bas), 2009
+Haut les pattes !: prix des librairies jeunesse (Pays-Bas), 2011
+Prix Bernard Versele (Belgique) 2018 pour Bruno. Quelques jours de ma vie très intéressante, texte de Catharina Valckx, illustrations de Nicolas Hubesch
+Prix Livrentête (France) 2019 pour  Bruno. Le jour où j'ai offert une plante à un inconnu, iillustrations de Nicolas Hubesch
+Sélections pour le prix international, le Prix commémoratif Astrid-Lindgren (Suède), en 2011, 2013, 2014 et 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catharina_Valckx</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Haut les pattes !  a fait l'objet d'un dessin animé pour la télévision allemande ZDF.
 </t>
